--- a/5. Data Visualization/Project - Communicate Data Findings/Prosper Loan Data - Variable Definitions.xlsx
+++ b/5. Data Visualization/Project - Communicate Data Findings/Prosper Loan Data - Variable Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naraeim/Desktop/Udacity_Data-Analyst-Nanodegree/5. Data Visualization/Project - Communicate Data Findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8DA2A7-81EE-0944-BDC9-A69A6A273848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF6ECE-27E4-FA44-8BB6-CB3CD57A3975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="2300" windowWidth="36420" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="33160" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,15 +55,9 @@
     <t>Term</t>
   </si>
   <si>
-    <t>The length of the loan expressed in months.</t>
-  </si>
-  <si>
     <t>LoanStatus</t>
   </si>
   <si>
-    <t>The current status of the loan: Cancelled,  Chargedoff, Completed, Current, Defaulted, FinalPaymentInProgress, PastDue. The PastDue status will be accompanied by a delinquency bucket.</t>
-  </si>
-  <si>
     <t>ClosedDate</t>
   </si>
   <si>
@@ -112,18 +106,12 @@
     <t>ProsperScore</t>
   </si>
   <si>
-    <t>A custom risk score built using historical Prosper data. The score ranges from 1-10, with 10 being the best, or lowest risk score.  Applicable for loans originated after July 2009.</t>
-  </si>
-  <si>
     <t>ListingCategory</t>
   </si>
   <si>
     <t>The category of the listing that the borrower selected when posting their listing: 0 - Not Available, 1 - Debt Consolidation, 2 - Home Improvement, 3 - Business, 4 - Personal Loan, 5 - Student Use, 6 - Auto, 7- Other, 8 - Baby&amp;Adoption, 9 - Boat, 10 - Cosmetic Procedure, 11 - Engagement Ring, 12 - Green Loans, 13 - Household Expenses, 14 - Large Purchases, 15 - Medical/Dental, 16 - Motorcycle, 17 - RV, 18 - Taxes, 19 - Vacation, 20 - Wedding Loans</t>
   </si>
   <si>
-    <t>BorrowerState</t>
-  </si>
-  <si>
     <t>The two letter abbreviation of the state of the address of the borrower at the time the Listing was created.</t>
   </si>
   <si>
@@ -281,9 +269,6 @@
   </si>
   <si>
     <t>Number of trade lines ever opened at the time the credit profile was pulled.</t>
-  </si>
-  <si>
-    <t>TradesNeverDelinquent</t>
   </si>
   <si>
     <t>Number of trades that have never been delinquent at the time the credit profile was pulled.</t>
@@ -514,6 +499,26 @@
   </si>
   <si>
     <t>The  Prosper Rating assigned at the time the listing was created: 0 - N/A, 1 - HR, 2 - E, 3 - D, 4 - C, 5 - B, 6 - A, 7 - AA.  Applicable for loans originated after July 2009.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of the loan expressed in months.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current status of the loan: Cancelled,  Chargedoff, Completed, Current, Defaulted, FinalPaymentInProgress, PastDue. The PastDue status will be accompanied by a delinquency bucket.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BorrowerState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A custom risk score built using historical Prosper data. The score ranges from 1-10, with 10 being the best, or lowest risk score.  Applicable for loans originated after July 2009.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradesNeverDelinquent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -592,6 +597,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -913,7 +924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -967,616 +978,616 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+      <c r="B6" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
+      <c r="A19" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>69</v>
+      <c r="A37" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>73</v>
+      <c r="A39" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
+      <c r="A46" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>117</v>
+      <c r="A61" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>129</v>
+      <c r="A67" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>133</v>
+      <c r="A69" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
